--- a/Assignment_06/membership scores.xlsx
+++ b/Assignment_06/membership scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandi\Stats MS\430\UIUC-STAT430-Unsupervised-Learning\Assignment_06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9BE6EF-89E1-4456-B164-4862A83E323F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E6003A-C58F-4A75-AFC1-FDB9C33CCE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11505" xr2:uid="{5CBD53D5-FF3B-401A-9FD6-69C4BDA89626}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5CBD53D5-FF3B-401A-9FD6-69C4BDA89626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Object 1</t>
   </si>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>weights2 d</t>
+  </si>
+  <si>
+    <t>Centroid 1
+W1*x, W1*y</t>
+  </si>
+  <si>
+    <t>Centroid 2
+W2*x, W2*y</t>
   </si>
 </sst>
 </file>
@@ -162,19 +170,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -183,6 +182,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E31ADB-7168-4D2F-8E0A-224FF664ABE7}">
   <dimension ref="C3:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,42 +523,42 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -748,104 +759,104 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f>SUM(D5:D10)</f>
         <v>2.85</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f>SUM(E5:E10)</f>
         <v>3.15</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
         <f>SUM(H5:H10)</f>
         <v>6.5</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <f>SUM(I5:I10)</f>
         <v>15.95</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <f>SUM(J5:J10)</f>
         <v>1.5</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <f>SUM(K5:K10)</f>
         <v>29.55</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <f>H11/D11</f>
         <v>2.2807017543859649</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <f>I11/D11</f>
         <v>5.5964912280701746</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <f>J11/E11</f>
         <v>0.47619047619047622</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <f>K11/E11</f>
         <v>9.3809523809523814</v>
       </c>
     </row>
     <row r="19" spans="3:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="8" t="s">
+      <c r="H19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -855,11 +866,11 @@
       </c>
       <c r="D20">
         <f>O20/N20</f>
-        <v>0.40431152587824626</v>
+        <v>0.76180418399141803</v>
       </c>
       <c r="E20">
         <f>Q20/P20</f>
-        <v>0.59568847412175374</v>
+        <v>0.23819581600858197</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -890,20 +901,20 @@
         <v>4.45</v>
       </c>
       <c r="N20">
-        <f>(1/L20)^(1/(1-3))+(1/M20)^(1/(1-3))</f>
-        <v>3.5412844173005342</v>
+        <f>((1/L20)^(1/(3-1)))^3+((1/M20)^(1/(3-1)))^3</f>
+        <v>0.44722477562198709</v>
       </c>
       <c r="O20">
-        <f>(1/L20)^(1/(1-3))</f>
-        <v>1.4317821063276353</v>
+        <f>((1/L20)^(1/(3-1)))^3</f>
+        <v>0.34069770525345289</v>
       </c>
       <c r="P20">
-        <f>(1/L20)^(1/(1-3))+(1/M20)^(1/(1-3))</f>
-        <v>3.5412844173005342</v>
+        <f>((1/L20)^(1/(3-1)))^3+((1/M20)^(1/(3-1)))^3</f>
+        <v>0.44722477562198709</v>
       </c>
       <c r="Q20">
-        <f>(1/M20)^(1/(1-3))</f>
-        <v>2.109502310972899</v>
+        <f>((1/M20)^(1/(3-1)))^3</f>
+        <v>0.10652707036853419</v>
       </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
@@ -912,11 +923,11 @@
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D25" si="4">O21/N21</f>
-        <v>0.33029598538909494</v>
+        <v>0.8928835876979424</v>
       </c>
       <c r="E21">
         <f t="shared" ref="E21:E25" si="5">Q21/P21</f>
-        <v>0.66970401461090501</v>
+        <v>0.10711641230205753</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -926,7 +937,7 @@
       </c>
       <c r="H21">
         <f t="shared" ref="H21:H25" si="6">D21*F21</f>
-        <v>0.33029598538909494</v>
+        <v>0.8928835876979424</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I25" si="7">G21*D21</f>
@@ -934,7 +945,7 @@
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J25" si="8">E21*F21</f>
-        <v>0.66970401461090501</v>
+        <v>0.10711641230205753</v>
       </c>
       <c r="K21">
         <f t="shared" ref="K21:K25" si="9">G21*E21</f>
@@ -947,20 +958,20 @@
         <v>1.85</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N25" si="10">(1/L21)^(1/(1-3))+(1/M21)^(1/(1-3))</f>
-        <v>2.0309674441234815</v>
+        <f t="shared" ref="N21:N25" si="10">((1/L21)^(1/(3-1)))^3+((1/M21)^(1/(3-1)))^3</f>
+        <v>3.7101066092395847</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O25" si="11">(1/L21)^(1/(1-3))</f>
-        <v>0.67082039324993692</v>
+        <f t="shared" ref="O21:O25" si="11">((1/L21)^(1/(3-1)))^3</f>
+        <v>3.3126932999996885</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:P25" si="12">(1/L21)^(1/(1-3))+(1/M21)^(1/(1-3))</f>
-        <v>2.0309674441234815</v>
+        <f t="shared" ref="P21:P25" si="12">((1/L21)^(1/(3-1)))^3+((1/M21)^(1/(3-1)))^3</f>
+        <v>3.7101066092395847</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21:Q25" si="13">(1/M21)^(1/(1-3))</f>
-        <v>1.3601470508735445</v>
+        <f t="shared" ref="Q21:Q25" si="13">((1/M21)^(1/(3-1)))^3</f>
+        <v>0.39741330923989598</v>
       </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
@@ -969,11 +980,11 @@
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
-        <v>0.40687819885451121</v>
+        <v>0.75596025553330581</v>
       </c>
       <c r="E22">
         <f t="shared" si="5"/>
-        <v>0.59312180114548885</v>
+        <v>0.24403974446669427</v>
       </c>
       <c r="F22">
         <v>0.5</v>
@@ -983,19 +994,19 @@
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
-        <v>0.2034390994272556</v>
+        <v>0.37798012776665291</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>0.40687819885451121</v>
+        <v>0.75596025553330581</v>
       </c>
       <c r="J22">
         <f t="shared" si="8"/>
-        <v>0.29656090057274442</v>
+        <v>0.12201987223334713</v>
       </c>
       <c r="K22">
         <f t="shared" si="9"/>
-        <v>0.59312180114548885</v>
+        <v>0.24403974446669427</v>
       </c>
       <c r="L22">
         <v>0.8</v>
@@ -1005,19 +1016,19 @@
       </c>
       <c r="N22">
         <f t="shared" si="10"/>
-        <v>2.1982676720404455</v>
+        <v>1.8486983617299395</v>
       </c>
       <c r="O22">
         <f t="shared" si="11"/>
-        <v>0.89442719099991586</v>
+        <v>1.3975424859373689</v>
       </c>
       <c r="P22">
         <f t="shared" si="12"/>
-        <v>2.1982676720404455</v>
+        <v>1.8486983617299395</v>
       </c>
       <c r="Q22">
         <f t="shared" si="13"/>
-        <v>1.3038404810405297</v>
+        <v>0.45115587579257077</v>
       </c>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
@@ -1026,11 +1037,11 @@
       </c>
       <c r="D23">
         <f t="shared" si="4"/>
-        <v>0.59189119719918182</v>
+        <v>0.24687165884609813</v>
       </c>
       <c r="E23">
         <f t="shared" si="5"/>
-        <v>0.40810880280081818</v>
+        <v>0.75312834115390193</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1040,19 +1051,19 @@
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
-        <v>1.7756735915975455</v>
+        <v>0.74061497653829433</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>0.59189119719918182</v>
+        <v>0.24687165884609813</v>
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
-        <v>1.2243264084024545</v>
+        <v>2.2593850234617059</v>
       </c>
       <c r="K23">
         <f t="shared" si="9"/>
-        <v>0.40810880280081818</v>
+        <v>0.75312834115390193</v>
       </c>
       <c r="L23">
         <v>3.05</v>
@@ -1062,19 +1073,19 @@
       </c>
       <c r="N23">
         <f t="shared" si="10"/>
-        <v>2.9505843775365275</v>
+        <v>0.76046460605860433</v>
       </c>
       <c r="O23">
         <f t="shared" si="11"/>
-        <v>1.7464249196572981</v>
+        <v>0.18773715879143218</v>
       </c>
       <c r="P23">
         <f t="shared" si="12"/>
-        <v>2.9505843775365275</v>
+        <v>0.76046460605860433</v>
       </c>
       <c r="Q23">
         <f t="shared" si="13"/>
-        <v>1.2041594578792296</v>
+        <v>0.57272744726717217</v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
@@ -1083,11 +1094,11 @@
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>0.59484333391085142</v>
+        <v>0.24011069355523348</v>
       </c>
       <c r="E24">
         <f t="shared" si="5"/>
-        <v>0.40515666608914852</v>
+        <v>0.7598893064447666</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1097,19 +1108,19 @@
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
-        <v>1.7845300017325543</v>
+        <v>0.72033208066570042</v>
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>1.1896866678217028</v>
+        <v>0.48022138711046697</v>
       </c>
       <c r="J24">
         <f t="shared" si="8"/>
-        <v>1.2154699982674455</v>
+        <v>2.2796679193342997</v>
       </c>
       <c r="K24">
         <f t="shared" si="9"/>
-        <v>0.81031333217829704</v>
+        <v>1.5197786128895332</v>
       </c>
       <c r="L24">
         <v>4.8499999999999996</v>
@@ -1119,19 +1130,19 @@
       </c>
       <c r="N24">
         <f t="shared" si="10"/>
-        <v>3.7022715545545237</v>
+        <v>0.38992033942753335</v>
       </c>
       <c r="O24">
         <f t="shared" si="11"/>
-        <v>2.2022715545545237</v>
+        <v>9.3624043131237081E-2</v>
       </c>
       <c r="P24">
         <f t="shared" si="12"/>
-        <v>3.7022715545545237</v>
+        <v>0.38992033942753335</v>
       </c>
       <c r="Q24">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
@@ -1140,11 +1151,11 @@
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>0.78287072704466754</v>
+        <v>2.0888964745460762E-2</v>
       </c>
       <c r="E25">
         <f t="shared" si="5"/>
-        <v>0.21712927295533241</v>
+        <v>0.97911103525453913</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -1154,19 +1165,19 @@
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
-        <v>1.5657414540893351</v>
+        <v>4.1777929490921524E-2</v>
       </c>
       <c r="I25">
         <f t="shared" si="7"/>
-        <v>0.78287072704466754</v>
+        <v>2.0888964745460762E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="8"/>
-        <v>0.43425854591066482</v>
+        <v>1.9582220705090783</v>
       </c>
       <c r="K25">
         <f t="shared" si="9"/>
-        <v>0.21712927295533241</v>
+        <v>0.97911103525453913</v>
       </c>
       <c r="L25">
         <v>0.65</v>
@@ -1176,78 +1187,78 @@
       </c>
       <c r="N25">
         <f t="shared" si="10"/>
-        <v>1.0298325725798341</v>
+        <v>91.350945785979434</v>
       </c>
       <c r="O25">
         <f t="shared" si="11"/>
-        <v>0.80622577482985502</v>
+        <v>1.9082266859878216</v>
       </c>
       <c r="P25">
         <f t="shared" si="12"/>
-        <v>1.0298325725798341</v>
+        <v>91.350945785979434</v>
       </c>
       <c r="Q25">
         <f t="shared" si="13"/>
-        <v>0.22360679774997896</v>
+        <v>89.442719099991606</v>
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <f>SUM(D20:D25)</f>
-        <v>3.1110909682765531</v>
-      </c>
-      <c r="E26" s="2">
+        <v>2.9185193443694581</v>
+      </c>
+      <c r="E26" s="1">
         <f>SUM(E20:E25)</f>
-        <v>2.8889090317234469</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2">
+        <v>3.0814806556305419</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
         <f>SUM(H20:H25)</f>
-        <v>5.6596801322357857</v>
-      </c>
-      <c r="I26" s="2">
+        <v>2.773588702159512</v>
+      </c>
+      <c r="I26" s="1">
         <f>SUM(I20:I25)</f>
-        <v>2.9713267909200636</v>
-      </c>
-      <c r="J26" s="2">
+        <v>1.5039422662353319</v>
+      </c>
+      <c r="J26" s="1">
         <f>SUM(J20:J25)</f>
-        <v>3.8403198677642143</v>
-      </c>
-      <c r="K26" s="2">
+        <v>6.7264112978404889</v>
+      </c>
+      <c r="K26" s="1">
         <f>SUM(K20:K25)</f>
-        <v>2.0286732090799364</v>
+        <v>3.496057733764669</v>
       </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="H29" s="4">
+      <c r="H29" s="2">
         <f>H26/D26</f>
-        <v>1.8191946779913899</v>
-      </c>
-      <c r="I29" s="4">
+        <v>0.9503410376602256</v>
+      </c>
+      <c r="I29" s="2">
         <f>I26/D26</f>
-        <v>0.95507550927258344</v>
-      </c>
-      <c r="J29" s="4">
+        <v>0.51531002154801764</v>
+      </c>
+      <c r="J29" s="2">
         <f>J26/E26</f>
-        <v>1.329332223892554</v>
-      </c>
-      <c r="K29" s="4">
+        <v>2.1828504052264157</v>
+      </c>
+      <c r="K29" s="2">
         <f>K26/E26</f>
-        <v>0.70222813761279412</v>
+        <v>1.1345382705475058</v>
       </c>
     </row>
   </sheetData>
